--- a/F_dataset/DUD-E/WEE1/WEE1_preprocessing/WEE1_g1.xlsx
+++ b/F_dataset/DUD-E/WEE1/WEE1_preprocessing/WEE1_g1.xlsx
@@ -604,7 +604,7 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A7257610&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD937680&gt;</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -672,7 +672,7 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C3920&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A3990&gt;</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -740,7 +740,7 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C3840&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A38B0&gt;</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -808,7 +808,7 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C36F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A3760&gt;</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -876,7 +876,7 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C3680&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A36F0&gt;</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -944,7 +944,7 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C3610&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A3680&gt;</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -1012,7 +1012,7 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C3530&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A35A0&gt;</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1080,7 +1080,7 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C3450&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A34C0&gt;</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1148,7 +1148,7 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C33E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A3450&gt;</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -1216,7 +1216,7 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C3370&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A33E0&gt;</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -1284,7 +1284,7 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C3300&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A3370&gt;</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -1352,7 +1352,7 @@
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C3290&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A3300&gt;</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -1420,7 +1420,7 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C31B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A3220&gt;</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -1488,7 +1488,7 @@
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C30D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A3140&gt;</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -1556,7 +1556,7 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C3060&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A30D0&gt;</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -1624,7 +1624,7 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C2FF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A3060&gt;</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -1692,7 +1692,7 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C2F80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A2FF0&gt;</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -1760,7 +1760,7 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C2EA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A2F10&gt;</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -1828,7 +1828,7 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C2E30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A2EA0&gt;</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -1896,7 +1896,7 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C2DC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A2E30&gt;</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -1964,7 +1964,7 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C2D50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A2DC0&gt;</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -2032,7 +2032,7 @@
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C2CE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A2D50&gt;</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -2100,7 +2100,7 @@
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C2C70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A2CE0&gt;</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -2168,7 +2168,7 @@
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C2C00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A2C70&gt;</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -2236,7 +2236,7 @@
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C2B90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A2C00&gt;</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
@@ -2304,7 +2304,7 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C2AB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A2B20&gt;</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
@@ -2372,7 +2372,7 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C2A40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A2AB0&gt;</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
@@ -2440,7 +2440,7 @@
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C29D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A2A40&gt;</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
@@ -2508,7 +2508,7 @@
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C28F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A2960&gt;</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
@@ -2576,7 +2576,7 @@
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C2810&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A2880&gt;</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
@@ -2644,7 +2644,7 @@
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C25E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A2650&gt;</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
@@ -2712,7 +2712,7 @@
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C2570&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A25E0&gt;</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
@@ -2780,7 +2780,7 @@
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C2500&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A2570&gt;</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
@@ -2848,7 +2848,7 @@
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C2490&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A2500&gt;</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
@@ -2916,7 +2916,7 @@
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C23B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A2420&gt;</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
@@ -2984,7 +2984,7 @@
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C2340&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A23B0&gt;</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
@@ -3052,7 +3052,7 @@
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C22D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A2340&gt;</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
@@ -3120,7 +3120,7 @@
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C2260&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A22D0&gt;</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
@@ -3188,7 +3188,7 @@
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C21F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A2260&gt;</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
@@ -3256,7 +3256,7 @@
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C2110&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A2180&gt;</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
@@ -3350,7 +3350,7 @@
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C20A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A2110&gt;</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
@@ -3444,7 +3444,7 @@
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C1F50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A1FC0&gt;</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
@@ -3538,7 +3538,7 @@
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C1E00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A1E70&gt;</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
@@ -3632,7 +3632,7 @@
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C1D20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A1D90&gt;</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
@@ -3726,7 +3726,7 @@
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C1BD0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A1C40&gt;</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
@@ -3820,7 +3820,7 @@
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C1B60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A1BD0&gt;</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
@@ -3914,7 +3914,7 @@
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C19A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A1A10&gt;</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
@@ -4008,7 +4008,7 @@
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C1930&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A19A0&gt;</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
@@ -4102,7 +4102,7 @@
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C17E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A1850&gt;</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
@@ -4196,7 +4196,7 @@
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C1770&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A17E0&gt;</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">

--- a/F_dataset/DUD-E/WEE1/WEE1_preprocessing/WEE1_g1.xlsx
+++ b/F_dataset/DUD-E/WEE1/WEE1_preprocessing/WEE1_g1.xlsx
@@ -548,7 +548,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CHEMBL472208</t>
+          <t>CHEMBL515352</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -556,12 +556,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCS(=O)c1nnc[nH]1</t>
+          <t>O=C(CCn1c2ccc(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O)NS(=O)(=O)c1ccccc1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCS(=O)c1nnc[nH]1</t>
+          <t>O=C(CCn1c2ccc(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O)NS(=O)(=O)c1ccccc1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>505.94</v>
+        <v>574.01</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
@@ -584,7 +584,7 @@
         <v>6</v>
       </c>
       <c r="J2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K2" t="n">
         <v>6</v>
@@ -593,7 +593,7 @@
         <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>129.97</v>
+        <v>134.57</v>
       </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
@@ -604,7 +604,7 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD937680&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EC43760&gt;</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CHEMBL379975</t>
+          <t>CHEMBL411662</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -624,12 +624,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1[nH]c3ccc(O)cc3c21</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCCO</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1[nH]c3ccc(O)cc3c21</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCCO</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -643,16 +643,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>362.77</v>
+        <v>420.85</v>
       </c>
       <c r="H3" t="n">
         <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
         <v>5</v>
@@ -661,7 +661,7 @@
         <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>82.19</v>
+        <v>91.56</v>
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
@@ -672,7 +672,7 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A3990&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EC437D0&gt;</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -684,7 +684,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CHEMBL469822</t>
+          <t>CHEMBL486517</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -692,12 +692,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2c(n1CCO)=CC(OCCCn1cccc1)C(O)(O)C=2</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCS(=O)n1ccnn1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2c(n1CCO)=CC(OCCCn1cccc1)C(O)(O)C=2</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCS(=O)n1ccnn1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -711,25 +711,25 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>548</v>
+        <v>505.94</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
         <v>6</v>
       </c>
       <c r="J4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K4" t="n">
         <v>6</v>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>125.95</v>
+        <v>119.11</v>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
@@ -740,7 +740,7 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A38B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EC43840&gt;</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -752,7 +752,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CHEMBL258067</t>
+          <t>CHEMBL472208</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -760,12 +760,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)c(CCCCN3CCOCC3)cc2n1CCO</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCS(=O)c1nnc[nH]1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)c(CCCCN3CCOCC3)cc2n1CCO</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCS(=O)c1nnc[nH]1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -779,7 +779,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>548.04</v>
+        <v>505.94</v>
       </c>
       <c r="H5" t="n">
         <v>3</v>
@@ -788,16 +788,16 @@
         <v>6</v>
       </c>
       <c r="J5" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K5" t="n">
         <v>6</v>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>104.03</v>
+        <v>129.97</v>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
@@ -808,7 +808,7 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A3760&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EC438B0&gt;</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CHEMBL472209</t>
+          <t>CHEMBL379975</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -828,12 +828,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCS(=O)(=O)c1nnc[nH]1</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1[nH]c3ccc(O)cc3c21</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCS(=O)(=O)c1nnc[nH]1</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1[nH]c3ccc(O)cc3c21</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -847,25 +847,25 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>521.9400000000001</v>
+        <v>362.77</v>
       </c>
       <c r="H6" t="n">
         <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>147.04</v>
+        <v>82.19</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
@@ -876,7 +876,7 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A36F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EC43920&gt;</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -888,7 +888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CHEMBL521200</t>
+          <t>CHEMBL469822</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -896,12 +896,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCSn1ccnn1</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2c(n1CCO)=CC(OCCCn1cccc1)C(O)(O)C=2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCSn1ccnn1</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2c(n1CCO)=CC(OCCCn1cccc1)C(O)(O)C=2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -915,25 +915,25 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>489.94</v>
+        <v>548</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
         <v>6</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K7" t="n">
         <v>6</v>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>102.04</v>
+        <v>125.95</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
@@ -944,7 +944,7 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A3680&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EC43990&gt;</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -956,7 +956,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CHEMBL386398</t>
+          <t>CHEMBL512342</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -964,12 +964,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1oc3ccc(O)cc3c21</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCc1nnn[nH]1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1oc3ccc(O)cc3c21</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCc1nnn[nH]1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -983,25 +983,25 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>363.76</v>
+        <v>458.87</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M8" t="n">
-        <v>79.54000000000001</v>
+        <v>125.79</v>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A35A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EC43A00&gt;</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CHEMBL488783</t>
+          <t>CHEMBL386398</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1032,12 +1032,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Cn1c2cc(CCCCn3cccc3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1oc3ccc(O)cc3c21</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Cn1c2cc(CCCCn3cccc3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1oc3ccc(O)cc3c21</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>497.98</v>
+        <v>363.76</v>
       </c>
       <c r="H9" t="n">
         <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>76.26000000000001</v>
+        <v>79.54000000000001</v>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
@@ -1080,7 +1080,7 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A34C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EC43A70&gt;</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1092,7 +1092,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CHEMBL181233</t>
+          <t>CHEMBL213422</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1100,12 +1100,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Cn1c(=O)c(-c2c(Cl)ccc(O)c2Cl)cc2cnc(Nc3ccccc3)nc21</t>
+          <t>O=C1NC(=O)c2c1c(-c1cc[nH]c1)cc1[nH]c3ccc(O)cc3c21</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Cn1c(=O)c(-c2c(Cl)ccc(O)c2Cl)cc2cnc(Nc3ccccc3)nc21</t>
+          <t>O=C1NC(=O)c2c1c(-c1cc[nH]c1)cc1[nH]c3ccc(O)cc3c21</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1119,25 +1119,25 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>413.26</v>
+        <v>317.3</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L10" t="n">
         <v>4</v>
       </c>
       <c r="M10" t="n">
-        <v>80.04000000000001</v>
+        <v>97.98</v>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
@@ -1148,7 +1148,7 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A3450&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EC43AE0&gt;</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -1160,7 +1160,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CHEMBL378756</t>
+          <t>CHEMBL486100</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1168,12 +1168,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1)cc1sc3ccc(O)cc3c21</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCC(=O)N1CCOCC1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1)cc1sc3ccc(O)cc3c21</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCC(=O)N1CCOCC1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1187,25 +1187,25 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>345.38</v>
+        <v>503.94</v>
       </c>
       <c r="H11" t="n">
         <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L11" t="n">
         <v>4</v>
       </c>
       <c r="M11" t="n">
-        <v>66.40000000000001</v>
+        <v>100.87</v>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
@@ -1216,7 +1216,7 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A33E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EC43B50&gt;</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CHEMBL483800</t>
+          <t>CHEMBL461134</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1236,12 +1236,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1ccc1c2c2cc(O)ccc2n1CCCNc1ccccc1</t>
+          <t>O=C1NC(=O)c2c1c(-c1c(Cl)cccc1Cl)cc1c2c2cc(O)ccc2n1CCCNc1ccccc1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1ccc1c2c2cc(O)ccc2n1CCCNc1ccccc1</t>
+          <t>O=C1NC(=O)c2c1c(-c1c(Cl)cccc1Cl)cc1c2c2cc(O)ccc2n1CCCNc1ccccc1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1255,7 +1255,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>385.42</v>
+        <v>530.41</v>
       </c>
       <c r="H12" t="n">
         <v>3</v>
@@ -1264,13 +1264,13 @@
         <v>4</v>
       </c>
       <c r="J12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M12" t="n">
         <v>83.36</v>
@@ -1284,7 +1284,7 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A3370&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EC43BC0&gt;</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -1296,7 +1296,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CHEMBL209907</t>
+          <t>CHEMBL181233</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1304,12 +1304,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1ccc1[nH]c3ccc(O)cc3c21</t>
+          <t>Cn1c(=O)c(-c2c(Cl)ccc(O)c2Cl)cc2cnc(Nc3ccccc3)nc21</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1ccc1[nH]c3ccc(O)cc3c21</t>
+          <t>Cn1c(=O)c(-c2c(Cl)ccc(O)c2Cl)cc2cnc(Nc3ccccc3)nc21</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1323,25 +1323,25 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>252.23</v>
+        <v>413.26</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
         <v>4</v>
       </c>
       <c r="L13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>82.19</v>
+        <v>80.04000000000001</v>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
@@ -1352,7 +1352,7 @@
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A3300&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EC43C30&gt;</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -1364,7 +1364,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CHEMBL209486</t>
+          <t>CHEMBL378756</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1372,12 +1372,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1cccs1)cc1[nH]c3ccc(O)cc3c21</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1)cc1sc3ccc(O)cc3c21</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1cccs1)cc1[nH]c3ccc(O)cc3c21</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1)cc1sc3ccc(O)cc3c21</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1391,10 +1391,10 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>334.36</v>
+        <v>345.38</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
         <v>3</v>
@@ -1409,7 +1409,7 @@
         <v>4</v>
       </c>
       <c r="M14" t="n">
-        <v>82.19</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
@@ -1420,7 +1420,7 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A3220&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EC43CA0&gt;</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -1432,7 +1432,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CHEMBL507613</t>
+          <t>CHEMBL520537</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1440,12 +1440,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Cn1c2ccc(O)cc2c2c3c(ccc21)C(=O)NC3=O</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCC(=O)n1ccnc1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Cn1c2ccc(O)cc2c2c3c(ccc21)C(=O)NC3=O</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCC(=O)n1ccnc1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1459,25 +1459,25 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>266.26</v>
+        <v>484.9</v>
       </c>
       <c r="H15" t="n">
         <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M15" t="n">
-        <v>71.33</v>
+        <v>106.22</v>
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
@@ -1488,7 +1488,7 @@
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A3140&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EC43D10&gt;</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -1500,7 +1500,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CHEMBL379149</t>
+          <t>CHEMBL483800</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1508,12 +1508,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccc[nH]1)cc1[nH]c3ccc(O)cc3c21</t>
+          <t>O=C1NC(=O)c2c1ccc1c2c2cc(O)ccc2n1CCCNc1ccccc1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccc[nH]1)cc1[nH]c3ccc(O)cc3c21</t>
+          <t>O=C1NC(=O)c2c1ccc1c2c2cc(O)ccc2n1CCCNc1ccccc1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>317.3</v>
+        <v>385.42</v>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K16" t="n">
         <v>5</v>
@@ -1545,7 +1545,7 @@
         <v>4</v>
       </c>
       <c r="M16" t="n">
-        <v>97.98</v>
+        <v>83.36</v>
       </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
@@ -1556,7 +1556,7 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A30D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EC43D80&gt;</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -1568,7 +1568,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CHEMBL483953</t>
+          <t>CHEMBL209907</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1576,12 +1576,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CN1CCN(CCCn2c3ccc(O)cc3c3c4c(ccc32)C(=O)NC4=O)CC1</t>
+          <t>O=C1NC(=O)c2c1ccc1[nH]c3ccc(O)cc3c21</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>CN1CCN(CCCn2c3ccc(O)cc3c3c4c(ccc32)C(=O)NC4=O)CC1</t>
+          <t>O=C1NC(=O)c2c1ccc1[nH]c3ccc(O)cc3c21</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1595,25 +1595,25 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>392.46</v>
+        <v>252.23</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L17" t="n">
         <v>3</v>
       </c>
       <c r="M17" t="n">
-        <v>77.81</v>
+        <v>82.19</v>
       </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
@@ -1624,7 +1624,7 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A3060&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EC43DF0&gt;</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -1636,7 +1636,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CHEMBL441695</t>
+          <t>CHEMBL209486</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1644,12 +1644,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1)cc1oc3ccc(O)cc3c21</t>
+          <t>O=C1NC(=O)c2c1c(-c1cccs1)cc1[nH]c3ccc(O)cc3c21</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1)cc1oc3ccc(O)cc3c21</t>
+          <t>O=C1NC(=O)c2c1c(-c1cccs1)cc1[nH]c3ccc(O)cc3c21</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1663,13 +1663,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>329.31</v>
+        <v>334.36</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J18" t="n">
         <v>1</v>
@@ -1681,7 +1681,7 @@
         <v>4</v>
       </c>
       <c r="M18" t="n">
-        <v>79.54000000000001</v>
+        <v>82.19</v>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
@@ -1692,7 +1692,7 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A2FF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EC43E60&gt;</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -1704,7 +1704,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CHEMBL379346</t>
+          <t>CHEMBL507613</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1712,12 +1712,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1-c1ccccc1)cc1[nH]c3ccc(O)cc3c21</t>
+          <t>Cn1c2ccc(O)cc2c2c3c(ccc21)C(=O)NC3=O</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1-c1ccccc1)cc1[nH]c3ccc(O)cc3c21</t>
+          <t>Cn1c2ccc(O)cc2c2c3c(ccc21)C(=O)NC3=O</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1731,25 +1731,25 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>404.43</v>
+        <v>266.26</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
         <v>3</v>
       </c>
       <c r="J19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M19" t="n">
-        <v>82.19</v>
+        <v>71.33</v>
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
@@ -1760,7 +1760,7 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A2F10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EC43ED0&gt;</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -1772,7 +1772,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CHEMBL607707</t>
+          <t>CHEMBL483801</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1780,12 +1780,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CCOc1cc2ncc(C#N)c(Nc3ccc(F)c(Cl)c3)c2cc1NC(=O)/C=C/CN(C)C</t>
+          <t>CN(C)CCNC(=O)CCn1c2ccc(O)cc2c2c3c(ccc21)C(=O)NC3=O</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>CCOc1cc2ncc(C#N)c(Nc3ccc(F)c(Cl)c3)c2cc1NC(=O)/C=C/CN(C)C</t>
+          <t>CN(C)CCNC(=O)CCn1c2ccc(O)cc2c2c3c(ccc21)C(=O)NC3=O</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1799,25 +1799,25 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>467.93</v>
+        <v>394.43</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J20" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L20" t="n">
         <v>3</v>
       </c>
       <c r="M20" t="n">
-        <v>90.28</v>
+        <v>103.67</v>
       </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
@@ -1828,7 +1828,7 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A2EA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EC43F40&gt;</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -1840,7 +1840,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CHEMBL378347</t>
+          <t>CHEMBL379149</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1848,12 +1848,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccncc1)cc1[nH]c3ccc(O)cc3c21</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccc[nH]1)cc1[nH]c3ccc(O)cc3c21</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccncc1)cc1[nH]c3ccc(O)cc3c21</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccc[nH]1)cc1[nH]c3ccc(O)cc3c21</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1867,13 +1867,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>329.32</v>
+        <v>317.3</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
@@ -1885,7 +1885,7 @@
         <v>4</v>
       </c>
       <c r="M21" t="n">
-        <v>95.08</v>
+        <v>97.98</v>
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
@@ -1896,7 +1896,7 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A2E30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EC6C040&gt;</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -1908,7 +1908,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CHEMBL272267</t>
+          <t>CHEMBL483953</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1916,44 +1916,44 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Cn1c2cc(C(=O)NCCN3CCCC3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
+          <t>CN1CCN(CCCn2c3ccc(O)cc3c3c4c(ccc32)C(=O)NC4=O)CC1</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Cn1c2cc(C(=O)NCCN3CCCC3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
+          <t>CN1CCN(CCCn2c3ccc(O)cc3c3c4c(ccc32)C(=O)NC4=O)CC1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>516.99</v>
+        <v>392.46</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
         <v>5</v>
       </c>
       <c r="J22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>103.67</v>
+        <v>77.81</v>
       </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
@@ -1964,7 +1964,7 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A2DC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EC6C0B0&gt;</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -1976,7 +1976,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CHEMBL404335</t>
+          <t>CHEMBL441695</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1984,44 +1984,44 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Cn1c2cc(SCCCN3CCCC3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1)cc1oc3ccc(O)cc3c21</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Cn1c2cc(SCCCN3CCCC3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1)cc1oc3ccc(O)cc3c21</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>520.05</v>
+        <v>329.31</v>
       </c>
       <c r="H23" t="n">
         <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J23" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L23" t="n">
         <v>4</v>
       </c>
       <c r="M23" t="n">
-        <v>74.56999999999999</v>
+        <v>79.54000000000001</v>
       </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
@@ -2032,7 +2032,7 @@
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A2D50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EC6C120&gt;</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -2044,7 +2044,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CHEMBL484808</t>
+          <t>CHEMBL379346</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2052,44 +2052,44 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>NC(=O)CCn1c2ccc(O)cc2c2c3c(ccc21)C(=O)NC3=O</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1-c1ccccc1)cc1[nH]c3ccc(O)cc3c21</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NC(=O)CCn1c2ccc(O)cc2c2c3c(ccc21)C(=O)NC3=O</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1-c1ccccc1)cc1[nH]c3ccc(O)cc3c21</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>323.31</v>
+        <v>404.43</v>
       </c>
       <c r="H24" t="n">
         <v>3</v>
       </c>
       <c r="I24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K24" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M24" t="n">
-        <v>114.42</v>
+        <v>82.19</v>
       </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
@@ -2100,7 +2100,7 @@
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A2CE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EC6C190&gt;</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -2112,7 +2112,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CHEMBL474111</t>
+          <t>CHEMBL607707</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2120,44 +2120,44 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)c(OCCCn3cccc3)cc2n1CCO</t>
+          <t>CCOc1cc2ncc(C#N)c(Nc3ccc(F)c(Cl)c3)c2cc1NC(=O)/C=C/CN(C)C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)c(OCCCn3cccc3)cc2n1CCO</t>
+          <t>CCOc1cc2ncc(C#N)c(Nc3ccc(F)c(Cl)c3)c2cc1NC(=O)/C=C/CN(C)C</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>529.98</v>
+        <v>467.93</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J25" t="n">
         <v>8</v>
       </c>
       <c r="K25" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M25" t="n">
-        <v>105.72</v>
+        <v>90.28</v>
       </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
@@ -2168,7 +2168,7 @@
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A2C70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EC6C200&gt;</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -2180,7 +2180,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CHEMBL113070</t>
+          <t>CHEMBL272267</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2188,12 +2188,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Cn1c(=O)c(-c2c(Cl)cccc2Cl)cc2cnc(Nc3ccc(CCCC(=O)O)cc3)nc21</t>
+          <t>Cn1c2cc(C(=O)NCCN3CCCC3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Cn1c(=O)c(-c2c(Cl)cccc2Cl)cc2cnc(Nc3ccc(CCCC(=O)O)cc3)nc21</t>
+          <t>Cn1c2cc(C(=O)NCCN3CCCC3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2207,25 +2207,25 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>483.36</v>
+        <v>516.99</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J26" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K26" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L26" t="n">
         <v>4</v>
       </c>
       <c r="M26" t="n">
-        <v>97.11</v>
+        <v>103.67</v>
       </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
@@ -2236,7 +2236,7 @@
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A2C00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EC6C270&gt;</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
@@ -2248,7 +2248,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CHEMBL270866</t>
+          <t>CHEMBL487757</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -2256,12 +2256,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Cn1c2cc(S(=O)CCCN3CCCC3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCS(=O)(=O)n1ccnn1</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Cn1c2cc(S(=O)CCCN3CCCC3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCS(=O)(=O)n1ccnn1</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2275,25 +2275,25 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>536.05</v>
+        <v>521.9400000000001</v>
       </c>
       <c r="H27" t="n">
         <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K27" t="n">
         <v>6</v>
       </c>
       <c r="L27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M27" t="n">
-        <v>91.64</v>
+        <v>136.18</v>
       </c>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
@@ -2304,7 +2304,7 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A2B20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EC6C2E0&gt;</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
@@ -2316,7 +2316,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CHEMBL181314</t>
+          <t>CHEMBL404335</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2324,12 +2324,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Cn1c(=O)c(-c2c(Cl)cc(O)cc2Cl)cc2cnc(Nc3ccc(OCCCC(=O)O)cc3)nc21</t>
+          <t>Cn1c2cc(SCCCN3CCCC3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Cn1c(=O)c(-c2c(Cl)cc(O)cc2Cl)cc2cnc(Nc3ccc(OCCCC(=O)O)cc3)nc21</t>
+          <t>Cn1c2cc(SCCCN3CCCC3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2343,25 +2343,25 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>515.35</v>
+        <v>520.05</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J28" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K28" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L28" t="n">
         <v>4</v>
       </c>
       <c r="M28" t="n">
-        <v>126.57</v>
+        <v>74.56999999999999</v>
       </c>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
@@ -2372,7 +2372,7 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A2AB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EC6C350&gt;</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
@@ -2384,7 +2384,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CHEMBL402093</t>
+          <t>CHEMBL520182</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -2392,12 +2392,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Cn1c2cc(S(=O)(=O)NCCN3CCCC3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
+          <t>O=C(O)CCn1c2ccc(O)cc2c2c3c(ccc21)C(=O)NC3=O</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Cn1c2cc(S(=O)(=O)NCCN3CCCC3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
+          <t>O=C(O)CCn1c2ccc(O)cc2c2c3c(ccc21)C(=O)NC3=O</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2411,25 +2411,25 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>553.04</v>
+        <v>324.29</v>
       </c>
       <c r="H29" t="n">
         <v>3</v>
       </c>
       <c r="I29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J29" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K29" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M29" t="n">
-        <v>120.74</v>
+        <v>108.63</v>
       </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
@@ -2440,7 +2440,7 @@
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A2A40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EC6C3C0&gt;</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
@@ -2452,7 +2452,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CHEMBL452079</t>
+          <t>CHEMBL513079</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2460,12 +2460,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1)cc1c2c2cc(O)ccc2n1CCCNc1ccccc1</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCSc1nnc[nH]1</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1)cc1c2c2cc(O)ccc2n1CCCNc1ccccc1</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCSc1nnc[nH]1</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2479,16 +2479,16 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>461.52</v>
+        <v>489.94</v>
       </c>
       <c r="H30" t="n">
         <v>3</v>
       </c>
       <c r="I30" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K30" t="n">
         <v>6</v>
@@ -2497,7 +2497,7 @@
         <v>5</v>
       </c>
       <c r="M30" t="n">
-        <v>83.36</v>
+        <v>112.9</v>
       </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
@@ -2508,7 +2508,7 @@
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A2960&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EC6C430&gt;</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
@@ -2520,7 +2520,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CHEMBL521065</t>
+          <t>CHEMBL474111</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2528,12 +2528,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1ccc1c2c2cc(O)ccc2n1CCCC(=O)n1ccnc1</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)c(OCCCn3cccc3)cc2n1CCO</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1ccc1c2c2cc(O)ccc2n1CCCC(=O)n1ccnc1</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)c(OCCCn3cccc3)cc2n1CCO</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2547,25 +2547,25 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>388.38</v>
+        <v>529.98</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I31" t="n">
         <v>5</v>
       </c>
       <c r="J31" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M31" t="n">
-        <v>106.22</v>
+        <v>105.72</v>
       </c>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
@@ -2576,7 +2576,7 @@
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A2880&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EC6C4A0&gt;</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
@@ -2588,7 +2588,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CHEMBL486728</t>
+          <t>CHEMBL469612</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -2596,12 +2596,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1c(Cl)cccc1Cl)cc1c2c2cc(O)ccc2n1CCC(=O)n1ccnc1</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)c(CCCCn3cccc3)cc2n1CCO</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1c(Cl)cccc1Cl)cc1c2c2cc(O)ccc2n1CCC(=O)n1ccnc1</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)c(CCCCn3cccc3)cc2n1CCO</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2615,16 +2615,16 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>519.34</v>
+        <v>528.01</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J32" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K32" t="n">
         <v>6</v>
@@ -2633,7 +2633,7 @@
         <v>5</v>
       </c>
       <c r="M32" t="n">
-        <v>106.22</v>
+        <v>96.48999999999999</v>
       </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
@@ -2644,7 +2644,7 @@
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A2650&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EC6C510&gt;</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
@@ -2656,7 +2656,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CHEMBL488572</t>
+          <t>CHEMBL113070</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -2664,12 +2664,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1ccc1c2c2cc(O)ccc2n1CCC(=O)N1CCOCC1</t>
+          <t>Cn1c(=O)c(-c2c(Cl)cccc2Cl)cc2cnc(Nc3ccc(CCCC(=O)O)cc3)nc21</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1ccc1c2c2cc(O)ccc2n1CCC(=O)N1CCOCC1</t>
+          <t>Cn1c(=O)c(-c2c(Cl)cccc2Cl)cc2cnc(Nc3ccc(CCCC(=O)O)cc3)nc21</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2683,25 +2683,25 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>393.4</v>
+        <v>483.36</v>
       </c>
       <c r="H33" t="n">
         <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J33" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M33" t="n">
-        <v>100.87</v>
+        <v>97.11</v>
       </c>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
@@ -2712,7 +2712,7 @@
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A25E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EC6C580&gt;</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
@@ -2724,7 +2724,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CHEMBL520984</t>
+          <t>CHEMBL270866</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2732,12 +2732,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Cn1c2cc(S(=O)(=O)CCCn3cccc3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
+          <t>Cn1c2cc(S(=O)CCCN3CCCC3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Cn1c2cc(S(=O)(=O)CCCn3cccc3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
+          <t>Cn1c2cc(S(=O)CCCN3CCCC3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2751,7 +2751,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>548.02</v>
+        <v>536.05</v>
       </c>
       <c r="H34" t="n">
         <v>2</v>
@@ -2766,10 +2766,10 @@
         <v>6</v>
       </c>
       <c r="L34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M34" t="n">
-        <v>110.4</v>
+        <v>91.64</v>
       </c>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
@@ -2780,7 +2780,7 @@
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A2570&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EC6C5F0&gt;</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
@@ -2792,7 +2792,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CHEMBL488899</t>
+          <t>CHEMBL181314</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -2800,12 +2800,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1)cc1c2c2cc(O)ccc2n1CCn1ccnc1</t>
+          <t>Cn1c(=O)c(-c2c(Cl)cc(O)cc2Cl)cc2cnc(Nc3ccc(OCCCC(=O)O)cc3)nc21</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1)cc1c2c2cc(O)ccc2n1CCn1ccnc1</t>
+          <t>Cn1c(=O)c(-c2c(Cl)cc(O)cc2Cl)cc2cnc(Nc3ccc(OCCCC(=O)O)cc3)nc21</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2819,25 +2819,25 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>422.44</v>
+        <v>515.35</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I35" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J35" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K35" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M35" t="n">
-        <v>89.15000000000001</v>
+        <v>126.57</v>
       </c>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
@@ -2848,7 +2848,7 @@
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A2500&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EC6C660&gt;</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
@@ -2860,7 +2860,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CHEMBL453347</t>
+          <t>CHEMBL377839</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -2868,12 +2868,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CN1CCN(CCCn2c3ccc(O)cc3c3c4c(c(-c5ccccc5)cc32)C(=O)NC4=O)CC1</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccsc1)cc1[nH]c3ccc(O)cc3c21</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>CN1CCN(CCCn2c3ccc(O)cc3c3c4c(c(-c5ccccc5)cc32)C(=O)NC4=O)CC1</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccsc1)cc1[nH]c3ccc(O)cc3c21</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2887,25 +2887,25 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>468.56</v>
+        <v>334.36</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J36" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K36" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L36" t="n">
         <v>4</v>
       </c>
       <c r="M36" t="n">
-        <v>77.81</v>
+        <v>82.19</v>
       </c>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
@@ -2916,7 +2916,7 @@
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A2420&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EC6C6D0&gt;</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
@@ -2928,7 +2928,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>CHEMBL472542</t>
+          <t>CHEMBL402093</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -2936,12 +2936,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>NC(=O)CCn1c2ccc(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
+          <t>Cn1c2cc(S(=O)(=O)NCCN3CCCC3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NC(=O)CCn1c2ccc(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
+          <t>Cn1c2cc(S(=O)(=O)NCCN3CCCC3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2951,29 +2951,29 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>433.85</v>
+        <v>553.04</v>
       </c>
       <c r="H37" t="n">
         <v>3</v>
       </c>
       <c r="I37" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J37" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K37" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L37" t="n">
         <v>4</v>
       </c>
       <c r="M37" t="n">
-        <v>114.42</v>
+        <v>120.74</v>
       </c>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
@@ -2984,7 +2984,7 @@
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A23B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EC6C740&gt;</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
@@ -2996,7 +2996,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>CHEMBL471163</t>
+          <t>CHEMBL452829</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -3004,12 +3004,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1c(Cl)cccc1Cl)cc1c2c2cc(O)ccc2n1CCCO</t>
+          <t>O=C1NC(=O)c2c1c(-c1c(Cl)cccc1Cl)cc1c2c2cc(O)ccc2n1CCCn1ccnc1</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1c(Cl)cccc1Cl)cc1c2c2cc(O)ccc2n1CCCO</t>
+          <t>O=C1NC(=O)c2c1c(-c1c(Cl)cccc1Cl)cc1c2c2cc(O)ccc2n1CCCn1ccnc1</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -3019,29 +3019,29 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>455.3</v>
+        <v>505.36</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
         <v>4</v>
       </c>
       <c r="J38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K38" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M38" t="n">
-        <v>91.56</v>
+        <v>89.15000000000001</v>
       </c>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
@@ -3052,7 +3052,7 @@
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A2340&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EC6C7B0&gt;</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
@@ -3064,7 +3064,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>CHEMBL256480</t>
+          <t>CHEMBL486828</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -3072,12 +3072,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1[nH]c3cc(OCCCN4CCOCC4)c(O)cc3c21</t>
+          <t>O=C1NC(=O)c2c1c(-c1c(Cl)cccc1Cl)cc1c2c2cc(O)ccc2n1CCCN1CCOCC1</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1[nH]c3cc(OCCCN4CCOCC4)c(O)cc3c21</t>
+          <t>O=C1NC(=O)c2c1c(-c1c(Cl)cccc1Cl)cc1c2c2cc(O)ccc2n1CCCN1CCOCC1</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -3087,20 +3087,20 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>505.96</v>
+        <v>524.4</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I39" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J39" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K39" t="n">
         <v>6</v>
@@ -3109,7 +3109,7 @@
         <v>4</v>
       </c>
       <c r="M39" t="n">
-        <v>103.89</v>
+        <v>83.8</v>
       </c>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
@@ -3120,7 +3120,7 @@
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A22D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EC6C820&gt;</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
@@ -3132,7 +3132,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>CHEMBL403679</t>
+          <t>CHEMBL362862</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -3140,12 +3140,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1[nH]c3cc(CCCCN4CCOCC4)c(O)cc3c21</t>
+          <t>Cn1c(=O)c(-c2c(Cl)cccc2Cl)cc2cnc(Nc3ccc(CCCC(=O)OCCN4CCOCC4)cc3)nc21</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1[nH]c3cc(CCCCN4CCOCC4)c(O)cc3c21</t>
+          <t>Cn1c(=O)c(-c2c(Cl)cccc2Cl)cc2cnc(Nc3ccc(CCCC(=O)OCCN4CCOCC4)cc3)nc21</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -3155,29 +3155,29 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>503.99</v>
+        <v>596.52</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J40" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K40" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L40" t="n">
         <v>4</v>
       </c>
       <c r="M40" t="n">
-        <v>94.66</v>
+        <v>98.58</v>
       </c>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
@@ -3188,7 +3188,7 @@
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A2260&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EC6C890&gt;</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
@@ -3200,7 +3200,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>CHEMBL272351</t>
+          <t>CHEMBL521065</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -3208,12 +3208,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Cn1c2cc(OCCCN3CCOCC3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
+          <t>O=C1NC(=O)c2c1ccc1c2c2cc(O)ccc2n1CCCC(=O)n1ccnc1</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Cn1c2cc(OCCCN3CCOCC3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
+          <t>O=C1NC(=O)c2c1ccc1c2c2cc(O)ccc2n1CCCC(=O)n1ccnc1</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -3223,29 +3223,29 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>519.99</v>
+        <v>388.38</v>
       </c>
       <c r="H41" t="n">
         <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J41" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K41" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L41" t="n">
         <v>4</v>
       </c>
       <c r="M41" t="n">
-        <v>93.03</v>
+        <v>106.22</v>
       </c>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A2180&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EC6C900&gt;</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
@@ -3268,7 +3268,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>CHEMBL369296</t>
+          <t>CHEMBL521051</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -3276,12 +3276,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Cn1c(=O)c(-c2c(Cl)cccc2Cl)cc2cnc(Nc3ccc(OCC(N)=O)cc3)nc21</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1)cc1c2c2cc(O)ccc2n1CCN1CCOCC1</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Cn1c(=O)c(-c2c(Cl)cccc2Cl)cc2cnc(Nc3ccc(OCC(N)=O)cc3)nc21</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1)cc1c2c2cc(O)ccc2n1CCN1CCOCC1</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -3291,66 +3291,40 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>470.32</v>
+        <v>441.49</v>
       </c>
       <c r="H42" t="n">
         <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J42" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K42" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L42" t="n">
         <v>4</v>
       </c>
       <c r="M42" t="n">
-        <v>112.13</v>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q42" t="n">
-        <v>250</v>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>CHEMBL829373</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>Inhibition of checkpoint kinase Wee1</t>
-        </is>
-      </c>
-      <c r="T42" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>83.8</v>
+      </c>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A2110&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EC6C970&gt;</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
@@ -3362,7 +3336,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>CHEMBL1976040</t>
+          <t>CHEMBL488572</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -3370,12 +3344,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>C=CCn1c(=O)c2cnc(Nc3ccc(N4CCN(C)CC4)cc3)nc2n1-c1cccc(C(C)(C)O)n1</t>
+          <t>O=C1NC(=O)c2c1ccc1c2c2cc(O)ccc2n1CCC(=O)N1CCOCC1</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>C=CCn1c(=O)c2cnc(Nc3ccc(N4CCN(C)CC4)cc3)nc2n1-c1cccc(C(C)(C)O)n1</t>
+          <t>O=C1NC(=O)c2c1ccc1c2c2cc(O)ccc2n1CCC(=O)N1CCOCC1</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -3385,66 +3359,40 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>500.61</v>
+        <v>393.4</v>
       </c>
       <c r="H43" t="n">
         <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J43" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K43" t="n">
         <v>5</v>
       </c>
       <c r="L43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M43" t="n">
-        <v>104.34</v>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q43" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>CHEMBL4233140</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>Inhibition of recombinant human Wee1 using poly(Lys,Tyr) as substrate after 30 mins in presence of [gamma-33P]-ATP by liquid scintillation counting method</t>
-        </is>
-      </c>
-      <c r="T43" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>100.87</v>
+      </c>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A1FC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EC6C9E0&gt;</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
@@ -3456,7 +3404,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>CHEMBL211878</t>
+          <t>CHEMBL520984</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -3464,12 +3412,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>COc1ccc2[nH]c3cc(-c4ccccc4Cl)c4c(c3c2c1)C(=O)NC4=O</t>
+          <t>Cn1c2cc(S(=O)(=O)CCCn3cccc3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>COc1ccc2[nH]c3cc(-c4ccccc4Cl)c4c(c3c2c1)C(=O)NC4=O</t>
+          <t>Cn1c2cc(S(=O)(=O)CCCn3cccc3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -3479,66 +3427,40 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>376.8</v>
+        <v>548.02</v>
       </c>
       <c r="H44" t="n">
         <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J44" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K44" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M44" t="n">
-        <v>71.19</v>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q44" t="n">
-        <v>641.88</v>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>CHEMBL1006579</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>Inhibition of human Wee1</t>
-        </is>
-      </c>
-      <c r="T44" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>110.4</v>
+      </c>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A1E70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EC6CA50&gt;</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
@@ -3550,7 +3472,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>CHEMBL214341</t>
+          <t>CHEMBL488899</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -3558,12 +3480,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Cc1c(-c2ccccc2)c2c(c3c1[nH]c1ccc(O)cc13)C(=O)NC2=O</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1)cc1c2c2cc(O)ccc2n1CCn1ccnc1</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Cc1c(-c2ccccc2)c2c(c3c1[nH]c1ccc(O)cc13)C(=O)NC2=O</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1)cc1c2c2cc(O)ccc2n1CCn1ccnc1</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3573,66 +3495,40 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>342.35</v>
+        <v>422.44</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J45" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K45" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M45" t="n">
-        <v>82.19</v>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q45" t="n">
-        <v>129.61</v>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>CHEMBL864855</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>Inhibition of human Wee1 in presence of 9.5 uM ATP</t>
-        </is>
-      </c>
-      <c r="T45" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>89.15000000000001</v>
+      </c>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A1D90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EC6CAC0&gt;</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
@@ -3644,7 +3540,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>CHEMBL512341</t>
+          <t>CHEMBL453347</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -3652,12 +3548,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>COc1ccccc1-c1cc2c(c3c1C(=O)NC3=O)c1cc(O)ccc1n2CCCO</t>
+          <t>CN1CCN(CCCn2c3ccc(O)cc3c3c4c(c(-c5ccccc5)cc32)C(=O)NC4=O)CC1</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>COc1ccccc1-c1cc2c(c3c1C(=O)NC3=O)c1cc(O)ccc1n2CCCO</t>
+          <t>CN1CCN(CCCn2c3ccc(O)cc3c3c4c(c(-c5ccccc5)cc32)C(=O)NC4=O)CC1</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -3667,14 +3563,14 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>416.43</v>
+        <v>468.56</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
         <v>5</v>
@@ -3683,50 +3579,24 @@
         <v>5</v>
       </c>
       <c r="K46" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L46" t="n">
         <v>4</v>
       </c>
       <c r="M46" t="n">
-        <v>100.79</v>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q46" t="n">
-        <v>30.07</v>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>CHEMBL1000360</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>Inhibition of human Wee1 assessed as polyornithine-tyrosine copolymer phosphorylation</t>
-        </is>
-      </c>
-      <c r="T46" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>77.81</v>
+      </c>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A1C40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EC6CB30&gt;</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
@@ -3738,7 +3608,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>CHEMBL400146</t>
+          <t>CHEMBL214172</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -3746,12 +3616,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Cc1cc(=O)c2c(O)cc3c(c2o1)C(=O)c1c(O)cc(O)cc1C3=O</t>
+          <t>O=C1NC(=O)c2c1c(-c1cccnc1)cc1[nH]c3ccc(O)cc3c21</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Cc1cc(=O)c2c(O)cc3c(c2o1)C(=O)c1c(O)cc(O)cc1C3=O</t>
+          <t>O=C1NC(=O)c2c1c(-c1cccnc1)cc1[nH]c3ccc(O)cc3c21</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -3761,66 +3631,40 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>338.27</v>
+        <v>329.32</v>
       </c>
       <c r="H47" t="n">
         <v>3</v>
       </c>
       <c r="I47" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L47" t="n">
         <v>4</v>
       </c>
       <c r="M47" t="n">
-        <v>125.04</v>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>Kd</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q47" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>CHEMBL1815757</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>Binding affinity to weel kinase</t>
-        </is>
-      </c>
-      <c r="T47" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>95.08</v>
+      </c>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A1BD0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EC6CBA0&gt;</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
@@ -3832,7 +3676,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>CHEMBL288441</t>
+          <t>CHEMBL256480</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -3840,12 +3684,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2c(C#N)cnc3cc(OCCCN4CCN(C)CC4)c(OC)cc23)c(Cl)cc1Cl</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1[nH]c3cc(OCCCN4CCOCC4)c(O)cc3c21</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2c(C#N)cnc3cc(OCCCN4CCN(C)CC4)c(OC)cc23)c(Cl)cc1Cl</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1[nH]c3cc(OCCCN4CCOCC4)c(O)cc3c21</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -3855,66 +3699,40 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>530.46</v>
+        <v>505.96</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I48" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J48" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K48" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M48" t="n">
-        <v>82.88</v>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>Kd</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q48" t="n">
-        <v>510</v>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>CHEMBL1908611</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>Binding constant for WEE1 kinase domain</t>
-        </is>
-      </c>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>103.89</v>
+      </c>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A1A10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EC6CC10&gt;</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
@@ -3926,7 +3744,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>CHEMBL1287853</t>
+          <t>CHEMBL438566</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -3934,12 +3752,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Cc1cnc(Nc2ccc(OCCN3CCCC3)cc2)nc1Nc1cccc(S(=O)(=O)NC(C)(C)C)c1</t>
+          <t>Cn1c2cc(CCCCN3CCOCC3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Cc1cnc(Nc2ccc(OCCN3CCCC3)cc2)nc1Nc1cccc(S(=O)(=O)NC(C)(C)C)c1</t>
+          <t>Cn1c2cc(CCCCN3CCOCC3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -3949,66 +3767,40 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>524.6900000000001</v>
+        <v>518.01</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I49" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J49" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K49" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M49" t="n">
-        <v>108.48</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>Kd</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q49" t="n">
-        <v>390</v>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>CHEMBL1908611</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>Binding constant for WEE1 kinase domain</t>
-        </is>
-      </c>
-      <c r="T49" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>83.8</v>
+      </c>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A19A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EC6CC80&gt;</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
@@ -4020,7 +3812,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>CHEMBL3355519</t>
+          <t>CHEMBL403679</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -4028,12 +3820,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>O=c1c2cnc(Nc3ccccc3)nc2n2ccnc2n1-c1ccccc1Cl</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1[nH]c3cc(CCCCN4CCOCC4)c(O)cc3c21</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>O=c1c2cnc(Nc3ccccc3)nc2n2ccnc2n1-c1ccccc1Cl</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1[nH]c3cc(CCCCN4CCOCC4)c(O)cc3c21</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -4043,66 +3835,40 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>388.82</v>
+        <v>503.99</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I50" t="n">
         <v>5</v>
       </c>
       <c r="J50" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K50" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M50" t="n">
-        <v>77.11</v>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>Ki</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q50" t="n">
-        <v>21</v>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>CHEMBL3372984</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>Inhibition of GST-tagged human Wee1</t>
-        </is>
-      </c>
-      <c r="T50" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>94.66</v>
+      </c>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A1850&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EC6CCF0&gt;</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
@@ -4114,7 +3880,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>CHEMBL475251</t>
+          <t>CHEMBL272351</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -4122,12 +3888,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc(F)c(Nc3ccc4c(n3)NC(=O)C(C)(C)O4)n2)cc(OC)c1OC</t>
+          <t>Cn1c2cc(OCCCN3CCOCC3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc(F)c(Nc3ccc4c(n3)NC(=O)C(C)(C)O4)n2)cc(OC)c1OC</t>
+          <t>Cn1c2cc(OCCCN3CCOCC3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -4137,66 +3903,40 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>470.46</v>
+        <v>519.99</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I51" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J51" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K51" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M51" t="n">
-        <v>128.75</v>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>Kd</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q51" t="n">
-        <v>890</v>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>CHEMBL1908611</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>Binding constant for WEE1 kinase domain</t>
-        </is>
-      </c>
-      <c r="T51" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>93.03</v>
+      </c>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A17E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EC6CD60&gt;</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
